--- a/resources/lang/exportador para lang.xlsx
+++ b/resources/lang/exportador para lang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\mgm2\edecan\resources\lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D15CBA9-94E3-4112-82D7-A26BE45C5D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACC0FDE-FA28-4E7C-9E88-CD3A789488FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5C064074-92B6-453D-964E-E23F4DD06578}"/>
   </bookViews>
@@ -2483,733 +2483,733 @@
     <t>証明書</t>
   </si>
   <si>
-    <t>アルゼンチン</t>
-  </si>
-  <si>
-    <t>ベネズエラ</t>
-  </si>
-  <si>
-    <t>ドイツ</t>
-  </si>
-  <si>
-    <t>ベルギー</t>
-  </si>
-  <si>
-    <t>ボリビア</t>
-  </si>
-  <si>
-    <t>ブラジル</t>
-  </si>
-  <si>
-    <t>カナダ</t>
-  </si>
-  <si>
-    <t>チリ</t>
-  </si>
-  <si>
-    <t>コロンビア</t>
-  </si>
-  <si>
-    <t>コスタリカ</t>
-  </si>
-  <si>
-    <t>エクアドル</t>
-  </si>
-  <si>
-    <t>救世主</t>
-  </si>
-  <si>
-    <t>スペイン</t>
-  </si>
-  <si>
-    <t>フランス</t>
-  </si>
-  <si>
-    <t>ギリシャ</t>
-  </si>
-  <si>
-    <t>グアドループ</t>
-  </si>
-  <si>
-    <t>グアテマラ</t>
-  </si>
-  <si>
-    <t>ホンジュラス</t>
-  </si>
-  <si>
-    <t>イタリア</t>
-  </si>
-  <si>
-    <t>ジャマイカ</t>
-  </si>
-  <si>
-    <t>メキシコ</t>
-  </si>
-  <si>
-    <t>パナマ</t>
-  </si>
-  <si>
-    <t>パラグアイ</t>
-  </si>
-  <si>
-    <t>ペルー</t>
-  </si>
-  <si>
-    <t>ポルトガル</t>
-  </si>
-  <si>
-    <t>プエルトリコ</t>
-  </si>
-  <si>
-    <t>ドミニカ共和国</t>
-  </si>
-  <si>
-    <t>スイス</t>
-  </si>
-  <si>
-    <t>ウルグアイ</t>
-  </si>
-  <si>
-    <t>アメリカ合衆国</t>
-  </si>
-  <si>
-    <t>ニカラグア</t>
-  </si>
-  <si>
-    <t>アルバニア語</t>
-  </si>
-  <si>
-    <t>アンドラ</t>
-  </si>
-  <si>
-    <t>アンゴラ</t>
-  </si>
-  <si>
-    <t>アンギラ</t>
-  </si>
-  <si>
-    <t>南極大陸</t>
-  </si>
-  <si>
-    <t>古くて髭がある</t>
-  </si>
-  <si>
-    <t>オランダ領アンティル</t>
-  </si>
-  <si>
-    <t>サウジアラビア</t>
-  </si>
-  <si>
-    <t>アルジェリア</t>
-  </si>
-  <si>
-    <t>アルメニア</t>
-  </si>
-  <si>
-    <t>アルバ</t>
-  </si>
-  <si>
-    <t>オーストラリア</t>
-  </si>
-  <si>
-    <t>オーストリア</t>
-  </si>
-  <si>
-    <t>アゼルバイジャン</t>
-  </si>
-  <si>
-    <t>バハマ</t>
-  </si>
-  <si>
-    <t>バーレーン</t>
-  </si>
-  <si>
-    <t>バングラデシュ</t>
-  </si>
-  <si>
-    <t>バルバドス</t>
-  </si>
-  <si>
-    <t>ベラルーシ</t>
-  </si>
-  <si>
-    <t>ベリーズ</t>
-  </si>
-  <si>
-    <t>ベニン</t>
-  </si>
-  <si>
-    <t>バミューダ</t>
-  </si>
-  <si>
-    <t>ブータン</t>
-  </si>
-  <si>
-    <t>ボスニア・ヘルツェゴビナ</t>
-  </si>
-  <si>
-    <t>ボツワナ</t>
-  </si>
-  <si>
-    <t>ブーベ島</t>
-  </si>
-  <si>
-    <t>ブルネイ</t>
-  </si>
-  <si>
-    <t>ブルガリア</t>
-  </si>
-  <si>
-    <t>ブルキナファソ</t>
-  </si>
-  <si>
-    <t>ブルンジ</t>
-  </si>
-  <si>
-    <t>カーボベルデ</t>
-  </si>
-  <si>
-    <t>ケイマン諸島</t>
-  </si>
-  <si>
-    <t>カンボジア</t>
-  </si>
-  <si>
-    <t>カメルーン</t>
-  </si>
-  <si>
-    <t>中央アフリカ共和国</t>
-  </si>
-  <si>
-    <t>チャド</t>
-  </si>
-  <si>
-    <t>チェコ共和国</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>キプロス</t>
-  </si>
-  <si>
-    <t>クリスマス島</t>
-  </si>
-  <si>
-    <t>バチカン市</t>
-  </si>
-  <si>
-    <t>ココス諸島</t>
-  </si>
-  <si>
-    <t>コモロ</t>
-  </si>
-  <si>
-    <t>コンゴ民主共和国</t>
-  </si>
-  <si>
-    <t>コンゴ</t>
-  </si>
-  <si>
-    <t>クック諸島</t>
-  </si>
-  <si>
-    <t>北朝鮮</t>
-  </si>
-  <si>
-    <t>韓国</t>
-  </si>
-  <si>
-    <t>コートジボワール</t>
-  </si>
-  <si>
-    <t>クロアチア</t>
-  </si>
-  <si>
-    <t>キューバ</t>
-  </si>
-  <si>
-    <t>デンマーク</t>
-  </si>
-  <si>
-    <t>ドミニカ</t>
-  </si>
-  <si>
-    <t>エジプト</t>
-  </si>
-  <si>
-    <t>アラブ首長国連邦</t>
-  </si>
-  <si>
-    <t>エリトリア</t>
-  </si>
-  <si>
-    <t>スロバキア</t>
-  </si>
-  <si>
-    <t>スロベニア</t>
-  </si>
-  <si>
-    <t>合衆国領有小島</t>
-  </si>
-  <si>
-    <t>エストニア</t>
-  </si>
-  <si>
-    <t>エチオピア</t>
-  </si>
-  <si>
-    <t>フェロー諸島</t>
-  </si>
-  <si>
-    <t>フィリピン</t>
-  </si>
-  <si>
-    <t>フィンランド</t>
-  </si>
-  <si>
-    <t>フィジー</t>
-  </si>
-  <si>
-    <t>ガボン</t>
-  </si>
-  <si>
-    <t>ガンビア</t>
-  </si>
-  <si>
-    <t>ジョージア</t>
-  </si>
-  <si>
-    <t>サウスジョージアおよびサウスサンドイッチ諸島</t>
-  </si>
-  <si>
-    <t>ガーナ</t>
-  </si>
-  <si>
-    <t>ジブラルタル</t>
-  </si>
-  <si>
-    <t>グレネード</t>
-  </si>
-  <si>
-    <t>グリーンランド</t>
-  </si>
-  <si>
-    <t>グアム</t>
-  </si>
-  <si>
-    <t>フランス領ギアナ</t>
-  </si>
-  <si>
-    <t>ギニア</t>
-  </si>
-  <si>
-    <t>赤道ギニア</t>
-  </si>
-  <si>
-    <t>ギニアビサウ</t>
-  </si>
-  <si>
-    <t>ガイアナ</t>
-  </si>
-  <si>
-    <t>ハイチ</t>
-  </si>
-  <si>
-    <t>ハード島とマクドナルド諸島</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>ハンガリー</t>
-  </si>
-  <si>
-    <t>インド</t>
-  </si>
-  <si>
-    <t>インドネシア</t>
-  </si>
-  <si>
-    <t>イラン</t>
-  </si>
-  <si>
-    <t>イラク</t>
-  </si>
-  <si>
-    <t>アイルランド</t>
-  </si>
-  <si>
-    <t>アイスランド</t>
-  </si>
-  <si>
-    <t>イスラエル</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>ヨルダン</t>
-  </si>
-  <si>
-    <t>カザフスタン</t>
-  </si>
-  <si>
-    <t>ケニア</t>
-  </si>
-  <si>
-    <t>キルギスタン</t>
-  </si>
-  <si>
-    <t>キリバス</t>
-  </si>
-  <si>
-    <t>クウェート</t>
-  </si>
-  <si>
-    <t>ラオス</t>
-  </si>
-  <si>
-    <t>レソト</t>
-  </si>
-  <si>
-    <t>ラトビア</t>
-  </si>
-  <si>
-    <t>レバノン</t>
-  </si>
-  <si>
-    <t>リベリア</t>
-  </si>
-  <si>
-    <t>リビア</t>
-  </si>
-  <si>
-    <t>リヒテンシュタイン</t>
-  </si>
-  <si>
-    <t>リトアニア</t>
-  </si>
-  <si>
-    <t>ルクセンブルク</t>
-  </si>
-  <si>
-    <t>マカオ</t>
-  </si>
-  <si>
-    <t>FYRマケドニア</t>
-  </si>
-  <si>
-    <t>マダガスカル</t>
-  </si>
-  <si>
-    <t>マレーシア</t>
-  </si>
-  <si>
-    <t>マラウイ</t>
-  </si>
-  <si>
-    <t>モルディブ</t>
-  </si>
-  <si>
-    <t>マリ</t>
-  </si>
-  <si>
-    <t>麦芽</t>
-  </si>
-  <si>
-    <t>フォークランド諸島</t>
-  </si>
-  <si>
-    <t>北マリアナ諸島</t>
-  </si>
-  <si>
-    <t>モロッコ</t>
-  </si>
-  <si>
-    <t>マーシャル諸島</t>
-  </si>
-  <si>
-    <t>マルティニーク</t>
-  </si>
-  <si>
-    <t>マウリシオ</t>
-  </si>
-  <si>
-    <t>モーリタニア</t>
-  </si>
-  <si>
-    <t>マヨット</t>
-  </si>
-  <si>
-    <t>ミクロネシア</t>
-  </si>
-  <si>
-    <t>モルドバ</t>
-  </si>
-  <si>
-    <t>モナコ</t>
-  </si>
-  <si>
-    <t>モンゴル</t>
-  </si>
-  <si>
-    <t>モントセラト</t>
-  </si>
-  <si>
-    <t>モザンビーク</t>
-  </si>
-  <si>
-    <t>ミャンマー</t>
-  </si>
-  <si>
-    <t>ナミビア</t>
-  </si>
-  <si>
-    <t>ナウル</t>
-  </si>
-  <si>
-    <t>ネパール</t>
-  </si>
-  <si>
-    <t>ニジェール</t>
-  </si>
-  <si>
-    <t>ナイジェリア</t>
-  </si>
-  <si>
-    <t>ニウエ</t>
-  </si>
-  <si>
-    <t>ノーフォーク島</t>
-  </si>
-  <si>
-    <t>ノルウェー</t>
-  </si>
-  <si>
-    <t>ニューカレドニア</t>
-  </si>
-  <si>
-    <t>ニュージーランド</t>
-  </si>
-  <si>
-    <t>オマーン</t>
-  </si>
-  <si>
-    <t>オランダ</t>
-  </si>
-  <si>
-    <t>パキスタン</t>
-  </si>
-  <si>
-    <t>パラオ</t>
-  </si>
-  <si>
-    <t>パレスチナ</t>
-  </si>
-  <si>
-    <t>パプアニューギニア</t>
-  </si>
-  <si>
-    <t>ピトケアン諸島</t>
-  </si>
-  <si>
-    <t>フランス領ポリネシア</t>
-  </si>
-  <si>
-    <t>ポーランド</t>
-  </si>
-  <si>
-    <t>カタール</t>
-  </si>
-  <si>
-    <t>イギリス</t>
-  </si>
-  <si>
-    <t>ミーティング</t>
-  </si>
-  <si>
-    <t>ルワンダ</t>
-  </si>
-  <si>
-    <t>ルーマニア</t>
-  </si>
-  <si>
-    <t>ロシア</t>
-  </si>
-  <si>
-    <t>西サハラ</t>
-  </si>
-  <si>
-    <t>ソロモン諸島</t>
-  </si>
-  <si>
-    <t>サモア</t>
-  </si>
-  <si>
-    <t>アメリカ領サモア</t>
-  </si>
-  <si>
-    <t>セントクリストファーネイビス</t>
-  </si>
-  <si>
-    <t>サンマリノ</t>
-  </si>
-  <si>
-    <t>サンピエール島とミクロン島</t>
-  </si>
-  <si>
-    <t>セントビンセントおよびグレナディーン諸島</t>
-  </si>
-  <si>
-    <t>セントヘレナ</t>
-  </si>
-  <si>
-    <t>セントルシア</t>
-  </si>
-  <si>
-    <t>サントメ・プリンシペ</t>
-  </si>
-  <si>
-    <t>セネガル</t>
-  </si>
-  <si>
-    <t>セルビアとモンテネグロ</t>
-  </si>
-  <si>
-    <t>セイシェル</t>
-  </si>
-  <si>
-    <t>シエラレオネ</t>
-  </si>
-  <si>
-    <t>シンガポール</t>
-  </si>
-  <si>
-    <t>シリア</t>
-  </si>
-  <si>
-    <t>ソマリア</t>
-  </si>
-  <si>
-    <t>スリランカ</t>
-  </si>
-  <si>
-    <t>スワジランド</t>
-  </si>
-  <si>
-    <t>南アフリカ</t>
-  </si>
-  <si>
-    <t>スーダン</t>
-  </si>
-  <si>
-    <t>スウェーデン</t>
-  </si>
-  <si>
-    <t>スリナム</t>
-  </si>
-  <si>
-    <t>スバールバル諸島およびヤンマイエン</t>
-  </si>
-  <si>
-    <t>タイ</t>
-  </si>
-  <si>
-    <t>台湾</t>
-  </si>
-  <si>
-    <t>タンザニア</t>
-  </si>
-  <si>
-    <t>タジキスタン</t>
-  </si>
-  <si>
-    <t>イギリス領インド洋地域</t>
-  </si>
-  <si>
-    <t>フランス領南方南方領土</t>
-  </si>
-  <si>
-    <t>東ティモール</t>
-  </si>
-  <si>
-    <t>トーゴ</t>
-  </si>
-  <si>
-    <t>トケラウ</t>
-  </si>
-  <si>
-    <t>トンガ</t>
-  </si>
-  <si>
-    <t>トリニダード・トバゴ</t>
-  </si>
-  <si>
-    <t>チュニジア</t>
-  </si>
-  <si>
-    <t>タークス・カイコス諸島</t>
-  </si>
-  <si>
-    <t>トルクメニスタン</t>
-  </si>
-  <si>
-    <t>七面鳥</t>
-  </si>
-  <si>
-    <t>ツバル語</t>
-  </si>
-  <si>
-    <t>ウクライナ</t>
-  </si>
-  <si>
-    <t>ウガンダ</t>
-  </si>
-  <si>
-    <t>ウズベキスタン</t>
-  </si>
-  <si>
-    <t>バヌアツ</t>
-  </si>
-  <si>
-    <t>ベトナム</t>
-  </si>
-  <si>
-    <t>イギリス領ヴァージン諸島</t>
-  </si>
-  <si>
-    <t>アメリカ領バージン諸島</t>
-  </si>
-  <si>
-    <t>ウォリス・フツナ</t>
-  </si>
-  <si>
-    <t>イエメン</t>
-  </si>
-  <si>
-    <t>ジブチ</t>
-  </si>
-  <si>
-    <t>ザンビア</t>
-  </si>
-  <si>
-    <t>ジンバブエ</t>
-  </si>
-  <si>
-    <t>イングランド</t>
-  </si>
-  <si>
-    <t>キュラソー</t>
-  </si>
-  <si>
-    <t>スコットランド</t>
-  </si>
-  <si>
-    <t>アフガニスタン</t>
-  </si>
-  <si>
-    <t>ニジェール西アフリカ</t>
+    <t>ארגנטינה</t>
+  </si>
+  <si>
+    <t>ונצואלה</t>
+  </si>
+  <si>
+    <t>גֶרמָנִיָה</t>
+  </si>
+  <si>
+    <t>בלגיה</t>
+  </si>
+  <si>
+    <t>בוליביה</t>
+  </si>
+  <si>
+    <t>בְּרָזִיל</t>
+  </si>
+  <si>
+    <t>קנדה</t>
+  </si>
+  <si>
+    <t>צ'ילי</t>
+  </si>
+  <si>
+    <t>קולומביה</t>
+  </si>
+  <si>
+    <t>קוסטה ריקה</t>
+  </si>
+  <si>
+    <t>אקוודור</t>
+  </si>
+  <si>
+    <t>המושיע</t>
+  </si>
+  <si>
+    <t>סְפָרַד</t>
+  </si>
+  <si>
+    <t>צָרְפַת</t>
+  </si>
+  <si>
+    <t>יָוָן</t>
+  </si>
+  <si>
+    <t>גוואדלופ</t>
+  </si>
+  <si>
+    <t>גואטמלה</t>
+  </si>
+  <si>
+    <t>הונדורס</t>
+  </si>
+  <si>
+    <t>אִיטַלִיָה</t>
+  </si>
+  <si>
+    <t>ג'מייקה</t>
+  </si>
+  <si>
+    <t>מקסיקו</t>
+  </si>
+  <si>
+    <t>פנמה</t>
+  </si>
+  <si>
+    <t>פרגוואי</t>
+  </si>
+  <si>
+    <t>פרו</t>
+  </si>
+  <si>
+    <t>פּוֹרטוּגָל</t>
+  </si>
+  <si>
+    <t>פוארטו ריקו</t>
+  </si>
+  <si>
+    <t>הרפובליקה הדומיניקנית</t>
+  </si>
+  <si>
+    <t>שְׁוֵיצָרִי</t>
+  </si>
+  <si>
+    <t>אורוגוואי</t>
+  </si>
+  <si>
+    <t>ארה"ב</t>
+  </si>
+  <si>
+    <t>ניקרגואה</t>
+  </si>
+  <si>
+    <t>אלבני</t>
+  </si>
+  <si>
+    <t>אנדורה</t>
+  </si>
+  <si>
+    <t>אנגולה</t>
+  </si>
+  <si>
+    <t>אנגווילה</t>
+  </si>
+  <si>
+    <t>אנטארקטיקה</t>
+  </si>
+  <si>
+    <t>זקן ומזוקן</t>
+  </si>
+  <si>
+    <t>האנטילים ההולנדיים</t>
+  </si>
+  <si>
+    <t>ערב הסעודית</t>
+  </si>
+  <si>
+    <t>אלג'יריה</t>
+  </si>
+  <si>
+    <t>אַרְמֶנִיָה</t>
+  </si>
+  <si>
+    <t>ארובה</t>
+  </si>
+  <si>
+    <t>אוֹסטְרַלִיָה</t>
+  </si>
+  <si>
+    <t>אוֹסְטְרֵיָה</t>
+  </si>
+  <si>
+    <t>אזרבייג'ן</t>
+  </si>
+  <si>
+    <t>איי בהאמה</t>
+  </si>
+  <si>
+    <t>בחריין</t>
+  </si>
+  <si>
+    <t>בנגלדש</t>
+  </si>
+  <si>
+    <t>ברבדוס</t>
+  </si>
+  <si>
+    <t>בלארוס</t>
+  </si>
+  <si>
+    <t>בליז</t>
+  </si>
+  <si>
+    <t>בנין</t>
+  </si>
+  <si>
+    <t>ברמודה</t>
+  </si>
+  <si>
+    <t>בהוטן</t>
+  </si>
+  <si>
+    <t>בוסניה והרצגובינה</t>
+  </si>
+  <si>
+    <t>בוצואנה</t>
+  </si>
+  <si>
+    <t>האי בובה</t>
+  </si>
+  <si>
+    <t>ברוניי</t>
+  </si>
+  <si>
+    <t>בולגריה</t>
+  </si>
+  <si>
+    <t>בורקינה פאסו</t>
+  </si>
+  <si>
+    <t>בורונדי</t>
+  </si>
+  <si>
+    <t>קייפ ורדה</t>
+  </si>
+  <si>
+    <t>איי קיימן</t>
+  </si>
+  <si>
+    <t>קמבודיה</t>
+  </si>
+  <si>
+    <t>קמרון</t>
+  </si>
+  <si>
+    <t>הרפובליקה המרכז - אפריקאית</t>
+  </si>
+  <si>
+    <t>צ'אד</t>
+  </si>
+  <si>
+    <t>הרפובליקה הצ'כית</t>
+  </si>
+  <si>
+    <t>חרסינה</t>
+  </si>
+  <si>
+    <t>קַפרִיסִין</t>
+  </si>
+  <si>
+    <t>אי חג המולד</t>
+  </si>
+  <si>
+    <t>עיר הותיקן</t>
+  </si>
+  <si>
+    <t>איי קוקוס</t>
+  </si>
+  <si>
+    <t>קומורו</t>
+  </si>
+  <si>
+    <t>הרפובליקה הדמוקרטית של קונגו</t>
+  </si>
+  <si>
+    <t>קונגו</t>
+  </si>
+  <si>
+    <t>איי בישול</t>
+  </si>
+  <si>
+    <t>צפון קוריאה</t>
+  </si>
+  <si>
+    <t>דרום קוריאה</t>
+  </si>
+  <si>
+    <t>חוף שנהב</t>
+  </si>
+  <si>
+    <t>קרואטיה</t>
+  </si>
+  <si>
+    <t>קובה</t>
+  </si>
+  <si>
+    <t>דנמרק</t>
+  </si>
+  <si>
+    <t>דומיניקה</t>
+  </si>
+  <si>
+    <t>מִצְרַיִם</t>
+  </si>
+  <si>
+    <t>איחוד האמירויות הערביות</t>
+  </si>
+  <si>
+    <t>אריתריאה</t>
+  </si>
+  <si>
+    <t>סלובקיה</t>
+  </si>
+  <si>
+    <t>סלובניה</t>
+  </si>
+  <si>
+    <t>איים מרוחקים של ארצות הברית</t>
+  </si>
+  <si>
+    <t>אסטוניה</t>
+  </si>
+  <si>
+    <t>אֶתִיוֹפִּיָה</t>
+  </si>
+  <si>
+    <t>איי פרו</t>
+  </si>
+  <si>
+    <t>פיליפינים</t>
+  </si>
+  <si>
+    <t>פינלנד</t>
+  </si>
+  <si>
+    <t>פיג'י</t>
+  </si>
+  <si>
+    <t>גאבון</t>
+  </si>
+  <si>
+    <t>גמביה</t>
+  </si>
+  <si>
+    <t>גאורגיה</t>
+  </si>
+  <si>
+    <t>דרום ג'ורג'יה ואיי סנדוויץ' הדרומיים</t>
+  </si>
+  <si>
+    <t>גאנה</t>
+  </si>
+  <si>
+    <t>גיברלטר</t>
+  </si>
+  <si>
+    <t>רימון</t>
+  </si>
+  <si>
+    <t>גרינלנד</t>
+  </si>
+  <si>
+    <t>גואם</t>
+  </si>
+  <si>
+    <t>גיאנה הצרפתית</t>
+  </si>
+  <si>
+    <t>גינאה</t>
+  </si>
+  <si>
+    <t>גיניאה המשוונית</t>
+  </si>
+  <si>
+    <t>גינאה-ביסאו</t>
+  </si>
+  <si>
+    <t>גויאנית</t>
+  </si>
+  <si>
+    <t>האיטי</t>
+  </si>
+  <si>
+    <t>איי הרד ואיי מקדונלד</t>
+  </si>
+  <si>
+    <t>הונג קונג</t>
+  </si>
+  <si>
+    <t>הונגריה</t>
+  </si>
+  <si>
+    <t>הוֹדוּ</t>
+  </si>
+  <si>
+    <t>אִינדוֹנֵזִיָה</t>
+  </si>
+  <si>
+    <t>איראן</t>
+  </si>
+  <si>
+    <t>עִירַאק</t>
+  </si>
+  <si>
+    <t>אירלנד</t>
+  </si>
+  <si>
+    <t>אִיסלַנד</t>
+  </si>
+  <si>
+    <t>ישראל</t>
+  </si>
+  <si>
+    <t>יפן</t>
+  </si>
+  <si>
+    <t>יַרדֵן</t>
+  </si>
+  <si>
+    <t>קזחסטן</t>
+  </si>
+  <si>
+    <t>קניה</t>
+  </si>
+  <si>
+    <t>קירגיזסטן</t>
+  </si>
+  <si>
+    <t>קיריבטי</t>
+  </si>
+  <si>
+    <t>כווית</t>
+  </si>
+  <si>
+    <t>לאוס</t>
+  </si>
+  <si>
+    <t>לסוטו</t>
+  </si>
+  <si>
+    <t>לטביה</t>
+  </si>
+  <si>
+    <t>לבנון</t>
+  </si>
+  <si>
+    <t>ליבריה</t>
+  </si>
+  <si>
+    <t>לוב</t>
+  </si>
+  <si>
+    <t>ליכטנשטיין</t>
+  </si>
+  <si>
+    <t>ליטא</t>
+  </si>
+  <si>
+    <t>לוקסמבורג</t>
+  </si>
+  <si>
+    <t>מקאו</t>
+  </si>
+  <si>
+    <t>מקדוניה לפני כן</t>
+  </si>
+  <si>
+    <t>מדגסקר</t>
+  </si>
+  <si>
+    <t>מלזיה</t>
+  </si>
+  <si>
+    <t>מלאווי</t>
+  </si>
+  <si>
+    <t>המלדיביים</t>
+  </si>
+  <si>
+    <t>מלי</t>
+  </si>
+  <si>
+    <t>לֶתֶת</t>
+  </si>
+  <si>
+    <t>איי פוקלנד</t>
+  </si>
+  <si>
+    <t>איי מריאנה הצפוניים</t>
+  </si>
+  <si>
+    <t>מָרוֹקוֹ</t>
+  </si>
+  <si>
+    <t>איי מרשל</t>
+  </si>
+  <si>
+    <t>מרטיניק</t>
+  </si>
+  <si>
+    <t>מאוריסיו</t>
+  </si>
+  <si>
+    <t>מאוריטניה</t>
+  </si>
+  <si>
+    <t>מיוט</t>
+  </si>
+  <si>
+    <t>מיקרונזיה</t>
+  </si>
+  <si>
+    <t>מולדובה</t>
+  </si>
+  <si>
+    <t>מונקו</t>
+  </si>
+  <si>
+    <t>מונגוליה</t>
+  </si>
+  <si>
+    <t>מונטסראט</t>
+  </si>
+  <si>
+    <t>מוזמביק</t>
+  </si>
+  <si>
+    <t>מיאנמר</t>
+  </si>
+  <si>
+    <t>נמיביה</t>
+  </si>
+  <si>
+    <t>נאורו</t>
+  </si>
+  <si>
+    <t>נפאל</t>
+  </si>
+  <si>
+    <t>ניז'ר</t>
+  </si>
+  <si>
+    <t>ניגריה</t>
+  </si>
+  <si>
+    <t>ניואה</t>
+  </si>
+  <si>
+    <t>האי נורפוק</t>
+  </si>
+  <si>
+    <t>נורווגיה</t>
+  </si>
+  <si>
+    <t>קלדוניה החדשה</t>
+  </si>
+  <si>
+    <t>ניו זילנד</t>
+  </si>
+  <si>
+    <t>עומאן</t>
+  </si>
+  <si>
+    <t>הולנד</t>
+  </si>
+  <si>
+    <t>פקיסטן</t>
+  </si>
+  <si>
+    <t>פלאו</t>
+  </si>
+  <si>
+    <t>פלשתינה</t>
+  </si>
+  <si>
+    <t>פפואה גינאה החדשה</t>
+  </si>
+  <si>
+    <t>איי פיטקרן</t>
+  </si>
+  <si>
+    <t>פולינזיה הצרפתית</t>
+  </si>
+  <si>
+    <t>פּוֹלִין</t>
+  </si>
+  <si>
+    <t>קטאר</t>
+  </si>
+  <si>
+    <t>הממלכה המאוחדת</t>
+  </si>
+  <si>
+    <t>פְּגִישָׁה</t>
+  </si>
+  <si>
+    <t>רואנדה</t>
+  </si>
+  <si>
+    <t>רומניה</t>
+  </si>
+  <si>
+    <t>רוּסִיָה</t>
+  </si>
+  <si>
+    <t>סהרה מערבית</t>
+  </si>
+  <si>
+    <t>איי שלמה</t>
+  </si>
+  <si>
+    <t>סמואה</t>
+  </si>
+  <si>
+    <t>סמואה האמריקנית</t>
+  </si>
+  <si>
+    <t>סנט קיטס ונוויס</t>
+  </si>
+  <si>
+    <t>סן מרינו</t>
+  </si>
+  <si>
+    <t>סנט פייר ומיקלון</t>
+  </si>
+  <si>
+    <t>סנט וינסנט והגרנדינים</t>
+  </si>
+  <si>
+    <t>סנט הלנה</t>
+  </si>
+  <si>
+    <t>סנט לוסיה</t>
+  </si>
+  <si>
+    <t>סאו טומה ופרינסיפה</t>
+  </si>
+  <si>
+    <t>סנגל</t>
+  </si>
+  <si>
+    <t>סרביה ומונטנגרו</t>
+  </si>
+  <si>
+    <t>סיישל</t>
+  </si>
+  <si>
+    <t>סיירה לאון</t>
+  </si>
+  <si>
+    <t>סינגפור</t>
+  </si>
+  <si>
+    <t>סוּריָה</t>
+  </si>
+  <si>
+    <t>סומליה</t>
+  </si>
+  <si>
+    <t>סרי לנקה</t>
+  </si>
+  <si>
+    <t>סווזילנד</t>
+  </si>
+  <si>
+    <t>דרום אפריקה</t>
+  </si>
+  <si>
+    <t>סודן</t>
+  </si>
+  <si>
+    <t>שבדיה</t>
+  </si>
+  <si>
+    <t>סורינאם</t>
+  </si>
+  <si>
+    <t>סבאלברד ויאן מאין</t>
+  </si>
+  <si>
+    <t>תאילנד</t>
+  </si>
+  <si>
+    <t>טייוואן</t>
+  </si>
+  <si>
+    <t>טנזניה</t>
+  </si>
+  <si>
+    <t>טג'יקיסטן</t>
+  </si>
+  <si>
+    <t>טריטוריית האוקיינוס ​​ההודי הבריטי</t>
+  </si>
+  <si>
+    <t>השטחים הדרומיים של צרפת</t>
+  </si>
+  <si>
+    <t>מזרח טימור</t>
+  </si>
+  <si>
+    <t>ללכת</t>
+  </si>
+  <si>
+    <t>טוקלאו</t>
+  </si>
+  <si>
+    <t>טונגה</t>
+  </si>
+  <si>
+    <t>טרינידד וטובגו</t>
+  </si>
+  <si>
+    <t>תוניסיה</t>
+  </si>
+  <si>
+    <t>איי טורקס וקאיקוס</t>
+  </si>
+  <si>
+    <t>טורקמניסטן</t>
+  </si>
+  <si>
+    <t>טורקיה</t>
+  </si>
+  <si>
+    <t>טובאלואן</t>
+  </si>
+  <si>
+    <t>אוקראינה</t>
+  </si>
+  <si>
+    <t>אוגנדה</t>
+  </si>
+  <si>
+    <t>אוזבקיסטן</t>
+  </si>
+  <si>
+    <t>ונואטו</t>
+  </si>
+  <si>
+    <t>וייטנאם</t>
+  </si>
+  <si>
+    <t>איי בתולה בריטיים</t>
+  </si>
+  <si>
+    <t>איי הבתולה של ארצות הברית</t>
+  </si>
+  <si>
+    <t>וואליס ופוטונה</t>
+  </si>
+  <si>
+    <t>תֵימָן</t>
+  </si>
+  <si>
+    <t>ג'יבוטי</t>
+  </si>
+  <si>
+    <t>זמביה</t>
+  </si>
+  <si>
+    <t>זימבבואה</t>
+  </si>
+  <si>
+    <t>אַנְגלִיָה</t>
+  </si>
+  <si>
+    <t>קוראסאו</t>
+  </si>
+  <si>
+    <t>סקוטלנד</t>
+  </si>
+  <si>
+    <t>אפגניסטן</t>
+  </si>
+  <si>
+    <t>ניז'ר ​​מערב אפריקה</t>
   </si>
 </sst>
 </file>
@@ -3561,10 +3561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9FAF0B-62BE-4686-BB45-0FBE90113D89}">
-  <dimension ref="A1:E696"/>
+  <dimension ref="A1:F696"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D695" sqref="A1:D695"/>
+    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="M355" sqref="M355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4984,12 +4984,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>131</v>
       </c>
@@ -5002,8 +5002,12 @@
       <c r="E131" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" t="str">
+        <f>CONCATENATE("&lt;",B131,"&lt;: &lt;",D131,"&lt;,")</f>
+        <v>&lt;Argentina&lt;: &lt;ארגנטינה&lt;,</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>132</v>
       </c>
@@ -5016,8 +5020,12 @@
       <c r="E132" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" t="str">
+        <f t="shared" ref="F132:F195" si="0">CONCATENATE("&lt;",B132,"&lt;: &lt;",D132,"&lt;,")</f>
+        <v>&lt;Venezuela&lt;: &lt;ונצואלה&lt;,</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>133</v>
       </c>
@@ -5030,8 +5038,12 @@
       <c r="E133" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Alemania&lt;: &lt;גֶרמָנִיָה&lt;,</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>134</v>
       </c>
@@ -5044,8 +5056,12 @@
       <c r="E134" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Belgica&lt;: &lt;בלגיה&lt;,</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>135</v>
       </c>
@@ -5058,8 +5074,12 @@
       <c r="E135" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Bolivia&lt;: &lt;בוליביה&lt;,</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>136</v>
       </c>
@@ -5072,8 +5092,12 @@
       <c r="E136" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Brasil&lt;: &lt;בְּרָזִיל&lt;,</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>137</v>
       </c>
@@ -5086,8 +5110,12 @@
       <c r="E137" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Canadá&lt;: &lt;קנדה&lt;,</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>138</v>
       </c>
@@ -5100,8 +5128,12 @@
       <c r="E138" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Chile&lt;: &lt;צ'ילי&lt;,</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>139</v>
       </c>
@@ -5114,8 +5146,12 @@
       <c r="E139" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Colombia&lt;: &lt;קולומביה&lt;,</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>140</v>
       </c>
@@ -5128,8 +5164,12 @@
       <c r="E140" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Costa Rica&lt;: &lt;קוסטה ריקה&lt;,</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>141</v>
       </c>
@@ -5142,8 +5182,12 @@
       <c r="E141" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Ecuador&lt;: &lt;אקוודור&lt;,</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>142</v>
       </c>
@@ -5156,8 +5200,12 @@
       <c r="E142" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;El Salvador&lt;: &lt;המושיע&lt;,</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>143</v>
       </c>
@@ -5170,8 +5218,12 @@
       <c r="E143" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;España&lt;: &lt;סְפָרַד&lt;,</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>144</v>
       </c>
@@ -5184,8 +5236,12 @@
       <c r="E144" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F144" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Francia&lt;: &lt;צָרְפַת&lt;,</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>145</v>
       </c>
@@ -5198,8 +5254,12 @@
       <c r="E145" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F145" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Grecia&lt;: &lt;יָוָן&lt;,</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>146</v>
       </c>
@@ -5212,8 +5272,12 @@
       <c r="E146" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F146" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Guadeloupe&lt;: &lt;גוואדלופ&lt;,</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>147</v>
       </c>
@@ -5226,8 +5290,12 @@
       <c r="E147" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F147" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Guatemala&lt;: &lt;גואטמלה&lt;,</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>148</v>
       </c>
@@ -5240,8 +5308,12 @@
       <c r="E148" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F148" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Honduras&lt;: &lt;הונדורס&lt;,</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>149</v>
       </c>
@@ -5254,8 +5326,12 @@
       <c r="E149" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F149" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Italia&lt;: &lt;אִיטַלִיָה&lt;,</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>150</v>
       </c>
@@ -5268,8 +5344,12 @@
       <c r="E150" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F150" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Jamaica&lt;: &lt;ג'מייקה&lt;,</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>151</v>
       </c>
@@ -5282,8 +5362,12 @@
       <c r="E151" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F151" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Mexico&lt;: &lt;מקסיקו&lt;,</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>152</v>
       </c>
@@ -5296,8 +5380,12 @@
       <c r="E152" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F152" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Panama&lt;: &lt;פנמה&lt;,</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>153</v>
       </c>
@@ -5310,8 +5398,12 @@
       <c r="E153" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F153" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Paraguay&lt;: &lt;פרגוואי&lt;,</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>154</v>
       </c>
@@ -5324,8 +5416,12 @@
       <c r="E154" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F154" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Perú&lt;: &lt;פרו&lt;,</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>155</v>
       </c>
@@ -5338,8 +5434,12 @@
       <c r="E155" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F155" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Portugal&lt;: &lt;פּוֹרטוּגָל&lt;,</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>156</v>
       </c>
@@ -5352,8 +5452,12 @@
       <c r="E156" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F156" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Puerto Rico&lt;: &lt;פוארטו ריקו&lt;,</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>157</v>
       </c>
@@ -5366,8 +5470,12 @@
       <c r="E157" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F157" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Republica Dominicana&lt;: &lt;הרפובליקה הדומיניקנית&lt;,</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>158</v>
       </c>
@@ -5380,8 +5488,12 @@
       <c r="E158" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F158" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Suiza&lt;: &lt;שְׁוֵיצָרִי&lt;,</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>159</v>
       </c>
@@ -5394,8 +5506,12 @@
       <c r="E159" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F159" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Uruguay&lt;: &lt;אורוגוואי&lt;,</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>160</v>
       </c>
@@ -5408,8 +5524,12 @@
       <c r="E160" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F160" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Estados Unidos&lt;: &lt;ארה"ב&lt;,</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>161</v>
       </c>
@@ -5422,8 +5542,12 @@
       <c r="E161" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F161" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Nicaragua&lt;: &lt;ניקרגואה&lt;,</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>162</v>
       </c>
@@ -5436,8 +5560,12 @@
       <c r="E162" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F162" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Albania&lt;: &lt;אלבני&lt;,</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>163</v>
       </c>
@@ -5450,8 +5578,12 @@
       <c r="E163" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F163" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Andorra&lt;: &lt;אנדורה&lt;,</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>164</v>
       </c>
@@ -5464,8 +5596,12 @@
       <c r="E164" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F164" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Angola&lt;: &lt;אנגולה&lt;,</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>165</v>
       </c>
@@ -5478,8 +5614,12 @@
       <c r="E165" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F165" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Anguilla&lt;: &lt;אנגווילה&lt;,</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>166</v>
       </c>
@@ -5492,8 +5632,12 @@
       <c r="E166" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F166" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Antártida&lt;: &lt;אנטארקטיקה&lt;,</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>167</v>
       </c>
@@ -5506,8 +5650,12 @@
       <c r="E167" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F167" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Antigua y Barbuda&lt;: &lt;זקן ומזוקן&lt;,</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>168</v>
       </c>
@@ -5520,8 +5668,12 @@
       <c r="E168" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F168" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Antillas Holandesas&lt;: &lt;האנטילים ההולנדיים&lt;,</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>169</v>
       </c>
@@ -5534,8 +5686,12 @@
       <c r="E169" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F169" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Arabia Saudí&lt;: &lt;ערב הסעודית&lt;,</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>170</v>
       </c>
@@ -5548,8 +5704,12 @@
       <c r="E170" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F170" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Argelia&lt;: &lt;אלג'יריה&lt;,</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>171</v>
       </c>
@@ -5562,8 +5722,12 @@
       <c r="E171" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F171" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Armenia&lt;: &lt;אַרְמֶנִיָה&lt;,</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>172</v>
       </c>
@@ -5576,8 +5740,12 @@
       <c r="E172" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F172" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Aruba&lt;: &lt;ארובה&lt;,</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>173</v>
       </c>
@@ -5590,8 +5758,12 @@
       <c r="E173" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F173" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Australia&lt;: &lt;אוֹסטְרַלִיָה&lt;,</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>174</v>
       </c>
@@ -5604,8 +5776,12 @@
       <c r="E174" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F174" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Austria&lt;: &lt;אוֹסְטְרֵיָה&lt;,</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>175</v>
       </c>
@@ -5618,8 +5794,12 @@
       <c r="E175" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F175" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Azerbaiyán&lt;: &lt;אזרבייג'ן&lt;,</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>176</v>
       </c>
@@ -5632,8 +5812,12 @@
       <c r="E176" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F176" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Bahamas&lt;: &lt;איי בהאמה&lt;,</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>177</v>
       </c>
@@ -5646,8 +5830,12 @@
       <c r="E177" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F177" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Bahréin&lt;: &lt;בחריין&lt;,</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>178</v>
       </c>
@@ -5660,8 +5848,12 @@
       <c r="E178" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F178" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Bangladesh&lt;: &lt;בנגלדש&lt;,</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>179</v>
       </c>
@@ -5674,8 +5866,12 @@
       <c r="E179" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F179" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Barbados&lt;: &lt;ברבדוס&lt;,</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>180</v>
       </c>
@@ -5688,8 +5884,12 @@
       <c r="E180" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F180" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Bielorrusia&lt;: &lt;בלארוס&lt;,</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>181</v>
       </c>
@@ -5702,8 +5902,12 @@
       <c r="E181" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F181" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Belice&lt;: &lt;בליז&lt;,</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>182</v>
       </c>
@@ -5716,8 +5920,12 @@
       <c r="E182" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F182" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Benin&lt;: &lt;בנין&lt;,</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>183</v>
       </c>
@@ -5730,8 +5938,12 @@
       <c r="E183" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F183" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Bermudas&lt;: &lt;ברמודה&lt;,</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>184</v>
       </c>
@@ -5744,8 +5956,12 @@
       <c r="E184" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F184" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Bhután&lt;: &lt;בהוטן&lt;,</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>185</v>
       </c>
@@ -5758,8 +5974,12 @@
       <c r="E185" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F185" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Bosnia y Herzegovina&lt;: &lt;בוסניה והרצגובינה&lt;,</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>186</v>
       </c>
@@ -5772,8 +5992,12 @@
       <c r="E186" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F186" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Botsuana&lt;: &lt;בוצואנה&lt;,</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>187</v>
       </c>
@@ -5786,8 +6010,12 @@
       <c r="E187" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F187" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Isla Bouvet&lt;: &lt;האי בובה&lt;,</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>188</v>
       </c>
@@ -5800,8 +6028,12 @@
       <c r="E188" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F188" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Brunéi&lt;: &lt;ברוניי&lt;,</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>189</v>
       </c>
@@ -5814,8 +6046,12 @@
       <c r="E189" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F189" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Bulgaria&lt;: &lt;בולגריה&lt;,</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>190</v>
       </c>
@@ -5828,8 +6064,12 @@
       <c r="E190" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F190" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Burkina Faso&lt;: &lt;בורקינה פאסו&lt;,</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>191</v>
       </c>
@@ -5842,8 +6082,12 @@
       <c r="E191" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F191" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Burundi&lt;: &lt;בורונדי&lt;,</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>192</v>
       </c>
@@ -5856,8 +6100,12 @@
       <c r="E192" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F192" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Cabo Verde&lt;: &lt;קייפ ורדה&lt;,</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>193</v>
       </c>
@@ -5870,8 +6118,12 @@
       <c r="E193" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F193" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Islas Caimán&lt;: &lt;איי קיימן&lt;,</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>194</v>
       </c>
@@ -5884,8 +6136,12 @@
       <c r="E194" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F194" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Camboya&lt;: &lt;קמבודיה&lt;,</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>195</v>
       </c>
@@ -5898,8 +6154,12 @@
       <c r="E195" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F195" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;Camerún&lt;: &lt;קמרון&lt;,</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>196</v>
       </c>
@@ -5912,8 +6172,12 @@
       <c r="E196" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F196" t="str">
+        <f t="shared" ref="F196:F259" si="1">CONCATENATE("&lt;",B196,"&lt;: &lt;",D196,"&lt;,")</f>
+        <v>&lt;República Centroafricana&lt;: &lt;הרפובליקה המרכז - אפריקאית&lt;,</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>197</v>
       </c>
@@ -5926,8 +6190,12 @@
       <c r="E197" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F197" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Chad&lt;: &lt;צ'אד&lt;,</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>198</v>
       </c>
@@ -5940,8 +6208,12 @@
       <c r="E198" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F198" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;República Checa&lt;: &lt;הרפובליקה הצ'כית&lt;,</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>199</v>
       </c>
@@ -5954,8 +6226,12 @@
       <c r="E199" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F199" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;China&lt;: &lt;חרסינה&lt;,</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
         <v>200</v>
       </c>
@@ -5968,8 +6244,12 @@
       <c r="E200" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F200" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Chipre&lt;: &lt;קַפרִיסִין&lt;,</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
         <v>201</v>
       </c>
@@ -5982,8 +6262,12 @@
       <c r="E201" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F201" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Isla de Navidad&lt;: &lt;אי חג המולד&lt;,</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
         <v>202</v>
       </c>
@@ -5996,8 +6280,12 @@
       <c r="E202" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F202" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Ciudad del Vaticano&lt;: &lt;עיר הותיקן&lt;,</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>203</v>
       </c>
@@ -6010,8 +6298,12 @@
       <c r="E203" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F203" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Islas Cocos&lt;: &lt;איי קוקוס&lt;,</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>204</v>
       </c>
@@ -6024,8 +6316,12 @@
       <c r="E204" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F204" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Comoras&lt;: &lt;קומורו&lt;,</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
         <v>205</v>
       </c>
@@ -6038,8 +6334,12 @@
       <c r="E205" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F205" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;República Democrática del Congo&lt;: &lt;הרפובליקה הדמוקרטית של קונגו&lt;,</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
         <v>206</v>
       </c>
@@ -6052,8 +6352,12 @@
       <c r="E206" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F206" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Congo&lt;: &lt;קונגו&lt;,</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>207</v>
       </c>
@@ -6066,8 +6370,12 @@
       <c r="E207" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F207" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Islas Cook&lt;: &lt;איי בישול&lt;,</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>208</v>
       </c>
@@ -6080,8 +6388,12 @@
       <c r="E208" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F208" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Corea del Norte&lt;: &lt;צפון קוריאה&lt;,</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>209</v>
       </c>
@@ -6094,8 +6406,12 @@
       <c r="E209" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F209" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Corea del Sur&lt;: &lt;דרום קוריאה&lt;,</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>210</v>
       </c>
@@ -6108,8 +6424,12 @@
       <c r="E210" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F210" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Costa de Marfil&lt;: &lt;חוף שנהב&lt;,</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
         <v>211</v>
       </c>
@@ -6122,8 +6442,12 @@
       <c r="E211" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F211" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Croacia&lt;: &lt;קרואטיה&lt;,</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>212</v>
       </c>
@@ -6136,8 +6460,12 @@
       <c r="E212" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F212" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Cuba&lt;: &lt;קובה&lt;,</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>213</v>
       </c>
@@ -6150,8 +6478,12 @@
       <c r="E213" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F213" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Dinamarca&lt;: &lt;דנמרק&lt;,</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>214</v>
       </c>
@@ -6164,8 +6496,12 @@
       <c r="E214" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F214" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Dominica&lt;: &lt;דומיניקה&lt;,</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
         <v>215</v>
       </c>
@@ -6178,8 +6514,12 @@
       <c r="E215" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F215" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Egipto&lt;: &lt;מִצְרַיִם&lt;,</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>216</v>
       </c>
@@ -6192,8 +6532,12 @@
       <c r="E216" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F216" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Emiratos Árabes Unidos&lt;: &lt;איחוד האמירויות הערביות&lt;,</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>217</v>
       </c>
@@ -6206,8 +6550,12 @@
       <c r="E217" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F217" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Eritrea&lt;: &lt;אריתריאה&lt;,</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>218</v>
       </c>
@@ -6220,8 +6568,12 @@
       <c r="E218" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F218" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Eslovaquia&lt;: &lt;סלובקיה&lt;,</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
         <v>219</v>
       </c>
@@ -6234,8 +6586,12 @@
       <c r="E219" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F219" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Eslovenia&lt;: &lt;סלובניה&lt;,</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
         <v>220</v>
       </c>
@@ -6248,8 +6604,12 @@
       <c r="E220" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F220" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Islas ultramarinas de Estados Unidos&lt;: &lt;איים מרוחקים של ארצות הברית&lt;,</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>221</v>
       </c>
@@ -6262,8 +6622,12 @@
       <c r="E221" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F221" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Estonia&lt;: &lt;אסטוניה&lt;,</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
         <v>222</v>
       </c>
@@ -6276,8 +6640,12 @@
       <c r="E222" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F222" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Etiopía&lt;: &lt;אֶתִיוֹפִּיָה&lt;,</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
         <v>223</v>
       </c>
@@ -6290,8 +6658,12 @@
       <c r="E223" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F223" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Islas Feroe&lt;: &lt;איי פרו&lt;,</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
         <v>224</v>
       </c>
@@ -6304,8 +6676,12 @@
       <c r="E224" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F224" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Filipinas&lt;: &lt;פיליפינים&lt;,</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
         <v>225</v>
       </c>
@@ -6318,8 +6694,12 @@
       <c r="E225" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F225" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Finlandia&lt;: &lt;פינלנד&lt;,</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
         <v>226</v>
       </c>
@@ -6332,8 +6712,12 @@
       <c r="E226" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F226" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Fiyi&lt;: &lt;פיג'י&lt;,</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
         <v>227</v>
       </c>
@@ -6346,8 +6730,12 @@
       <c r="E227" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F227" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Gabón&lt;: &lt;גאבון&lt;,</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
         <v>228</v>
       </c>
@@ -6360,8 +6748,12 @@
       <c r="E228" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F228" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Gambia&lt;: &lt;גמביה&lt;,</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
         <v>229</v>
       </c>
@@ -6374,8 +6766,12 @@
       <c r="E229" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F229" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Georgia&lt;: &lt;גאורגיה&lt;,</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
         <v>230</v>
       </c>
@@ -6388,8 +6784,12 @@
       <c r="E230" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F230" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Islas Georgias del Sur y Sandwich del Sur&lt;: &lt;דרום ג'ורג'יה ואיי סנדוויץ' הדרומיים&lt;,</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
         <v>231</v>
       </c>
@@ -6402,8 +6802,12 @@
       <c r="E231" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F231" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Ghana&lt;: &lt;גאנה&lt;,</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
         <v>232</v>
       </c>
@@ -6416,8 +6820,12 @@
       <c r="E232" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F232" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Gibraltar&lt;: &lt;גיברלטר&lt;,</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B233" t="s">
         <v>233</v>
       </c>
@@ -6430,8 +6838,12 @@
       <c r="E233" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F233" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Granada&lt;: &lt;רימון&lt;,</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
         <v>234</v>
       </c>
@@ -6444,8 +6856,12 @@
       <c r="E234" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F234" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Groenlandia&lt;: &lt;גרינלנד&lt;,</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>235</v>
       </c>
@@ -6458,8 +6874,12 @@
       <c r="E235" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F235" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Guam&lt;: &lt;גואם&lt;,</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
         <v>236</v>
       </c>
@@ -6472,8 +6892,12 @@
       <c r="E236" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F236" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Guayana Francesa&lt;: &lt;גיאנה הצרפתית&lt;,</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>237</v>
       </c>
@@ -6486,8 +6910,12 @@
       <c r="E237" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F237" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Guinea&lt;: &lt;גינאה&lt;,</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>238</v>
       </c>
@@ -6500,8 +6928,12 @@
       <c r="E238" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F238" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Guinea Ecuatorial&lt;: &lt;גיניאה המשוונית&lt;,</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
         <v>239</v>
       </c>
@@ -6514,8 +6946,12 @@
       <c r="E239" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F239" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Guinea-Bissau&lt;: &lt;גינאה-ביסאו&lt;,</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
         <v>240</v>
       </c>
@@ -6528,8 +6964,12 @@
       <c r="E240" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F240" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Guyana&lt;: &lt;גויאנית&lt;,</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
         <v>241</v>
       </c>
@@ -6542,8 +6982,12 @@
       <c r="E241" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F241" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Haití&lt;: &lt;האיטי&lt;,</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
         <v>242</v>
       </c>
@@ -6556,8 +7000,12 @@
       <c r="E242" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F242" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Islas Heard y McDonald&lt;: &lt;איי הרד ואיי מקדונלד&lt;,</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
         <v>243</v>
       </c>
@@ -6570,8 +7018,12 @@
       <c r="E243" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F243" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Hong Kong&lt;: &lt;הונג קונג&lt;,</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
         <v>244</v>
       </c>
@@ -6584,8 +7036,12 @@
       <c r="E244" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F244" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Hungría&lt;: &lt;הונגריה&lt;,</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
         <v>245</v>
       </c>
@@ -6598,8 +7054,12 @@
       <c r="E245" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F245" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;India&lt;: &lt;הוֹדוּ&lt;,</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
         <v>246</v>
       </c>
@@ -6612,8 +7072,12 @@
       <c r="E246" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F246" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Indonesia&lt;: &lt;אִינדוֹנֵזִיָה&lt;,</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
         <v>247</v>
       </c>
@@ -6626,8 +7090,12 @@
       <c r="E247" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F247" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Irán&lt;: &lt;איראן&lt;,</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
         <v>248</v>
       </c>
@@ -6640,8 +7108,12 @@
       <c r="E248" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F248" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Iraq&lt;: &lt;עִירַאק&lt;,</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
         <v>249</v>
       </c>
@@ -6654,8 +7126,12 @@
       <c r="E249" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F249" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Irlanda&lt;: &lt;אירלנד&lt;,</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
         <v>250</v>
       </c>
@@ -6668,8 +7144,12 @@
       <c r="E250" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F250" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Islandia&lt;: &lt;אִיסלַנד&lt;,</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
         <v>251</v>
       </c>
@@ -6682,8 +7162,12 @@
       <c r="E251" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F251" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Israel&lt;: &lt;ישראל&lt;,</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
         <v>252</v>
       </c>
@@ -6696,8 +7180,12 @@
       <c r="E252" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F252" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Japão&lt;: &lt;יפן&lt;,</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>253</v>
       </c>
@@ -6710,8 +7198,12 @@
       <c r="E253" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F253" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Jordania&lt;: &lt;יַרדֵן&lt;,</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>254</v>
       </c>
@@ -6724,8 +7216,12 @@
       <c r="E254" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F254" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Kazajstán&lt;: &lt;קזחסטן&lt;,</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>255</v>
       </c>
@@ -6738,8 +7234,12 @@
       <c r="E255" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F255" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Kenia&lt;: &lt;קניה&lt;,</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>256</v>
       </c>
@@ -6752,8 +7252,12 @@
       <c r="E256" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F256" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Kirguistán&lt;: &lt;קירגיזסטן&lt;,</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>257</v>
       </c>
@@ -6766,8 +7270,12 @@
       <c r="E257" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F257" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Kiribati&lt;: &lt;קיריבטי&lt;,</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
         <v>258</v>
       </c>
@@ -6780,8 +7288,12 @@
       <c r="E258" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F258" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Kuwait&lt;: &lt;כווית&lt;,</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
         <v>259</v>
       </c>
@@ -6794,8 +7306,12 @@
       <c r="E259" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F259" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;Laos&lt;: &lt;לאוס&lt;,</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
         <v>260</v>
       </c>
@@ -6808,8 +7324,12 @@
       <c r="E260" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F260" t="str">
+        <f t="shared" ref="F260:F323" si="2">CONCATENATE("&lt;",B260,"&lt;: &lt;",D260,"&lt;,")</f>
+        <v>&lt;Lesotho&lt;: &lt;לסוטו&lt;,</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
         <v>261</v>
       </c>
@@ -6822,8 +7342,12 @@
       <c r="E261" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F261" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Letonia&lt;: &lt;לטביה&lt;,</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
         <v>262</v>
       </c>
@@ -6836,8 +7360,12 @@
       <c r="E262" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F262" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Líbano&lt;: &lt;לבנון&lt;,</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
         <v>263</v>
       </c>
@@ -6850,8 +7378,12 @@
       <c r="E263" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F263" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Liberia&lt;: &lt;ליבריה&lt;,</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B264" t="s">
         <v>264</v>
       </c>
@@ -6864,8 +7396,12 @@
       <c r="E264" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F264" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Libia&lt;: &lt;לוב&lt;,</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
         <v>265</v>
       </c>
@@ -6878,8 +7414,12 @@
       <c r="E265" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F265" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Liechtenstein&lt;: &lt;ליכטנשטיין&lt;,</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
         <v>266</v>
       </c>
@@ -6892,8 +7432,12 @@
       <c r="E266" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F266" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Lituania&lt;: &lt;ליטא&lt;,</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
         <v>267</v>
       </c>
@@ -6906,8 +7450,12 @@
       <c r="E267" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F267" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Luxemburgo&lt;: &lt;לוקסמבורג&lt;,</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
         <v>268</v>
       </c>
@@ -6920,8 +7468,12 @@
       <c r="E268" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F268" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Macao&lt;: &lt;מקאו&lt;,</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
         <v>269</v>
       </c>
@@ -6934,8 +7486,12 @@
       <c r="E269" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F269" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;ARY Macedonia&lt;: &lt;מקדוניה לפני כן&lt;,</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
         <v>270</v>
       </c>
@@ -6948,8 +7504,12 @@
       <c r="E270" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F270" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Madagascar&lt;: &lt;מדגסקר&lt;,</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
         <v>271</v>
       </c>
@@ -6962,8 +7522,12 @@
       <c r="E271" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F271" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Malasia&lt;: &lt;מלזיה&lt;,</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
         <v>272</v>
       </c>
@@ -6976,8 +7540,12 @@
       <c r="E272" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F272" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Malawi&lt;: &lt;מלאווי&lt;,</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B273" t="s">
         <v>273</v>
       </c>
@@ -6990,8 +7558,12 @@
       <c r="E273" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F273" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Maldivas&lt;: &lt;המלדיביים&lt;,</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
         <v>274</v>
       </c>
@@ -7004,8 +7576,12 @@
       <c r="E274" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F274" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Malí&lt;: &lt;מלי&lt;,</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
         <v>275</v>
       </c>
@@ -7018,8 +7594,12 @@
       <c r="E275" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F275" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Malta&lt;: &lt;לֶתֶת&lt;,</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
         <v>276</v>
       </c>
@@ -7032,8 +7612,12 @@
       <c r="E276" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F276" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Islas Malvinas&lt;: &lt;איי פוקלנד&lt;,</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
         <v>277</v>
       </c>
@@ -7046,8 +7630,12 @@
       <c r="E277" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F277" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Islas Marianas del Norte&lt;: &lt;איי מריאנה הצפוניים&lt;,</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
         <v>278</v>
       </c>
@@ -7060,8 +7648,12 @@
       <c r="E278" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F278" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Marruecos&lt;: &lt;מָרוֹקוֹ&lt;,</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
         <v>279</v>
       </c>
@@ -7074,8 +7666,12 @@
       <c r="E279" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F279" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Islas Marshall&lt;: &lt;איי מרשל&lt;,</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
         <v>280</v>
       </c>
@@ -7088,8 +7684,12 @@
       <c r="E280" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F280" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Martinica&lt;: &lt;מרטיניק&lt;,</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
         <v>281</v>
       </c>
@@ -7102,8 +7702,12 @@
       <c r="E281" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F281" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Mauricio&lt;: &lt;מאוריסיו&lt;,</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
         <v>282</v>
       </c>
@@ -7116,8 +7720,12 @@
       <c r="E282" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F282" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Mauritania&lt;: &lt;מאוריטניה&lt;,</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
         <v>283</v>
       </c>
@@ -7130,8 +7738,12 @@
       <c r="E283" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F283" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Mayotte&lt;: &lt;מיוט&lt;,</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
         <v>284</v>
       </c>
@@ -7144,8 +7756,12 @@
       <c r="E284" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F284" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Micronesia&lt;: &lt;מיקרונזיה&lt;,</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
         <v>285</v>
       </c>
@@ -7158,8 +7774,12 @@
       <c r="E285" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F285" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Moldavia&lt;: &lt;מולדובה&lt;,</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
         <v>286</v>
       </c>
@@ -7172,8 +7792,12 @@
       <c r="E286" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F286" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Mónaco&lt;: &lt;מונקו&lt;,</v>
+      </c>
+    </row>
+    <row r="287" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
         <v>287</v>
       </c>
@@ -7186,8 +7810,12 @@
       <c r="E287" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F287" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Mongolia&lt;: &lt;מונגוליה&lt;,</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
         <v>288</v>
       </c>
@@ -7200,8 +7828,12 @@
       <c r="E288" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F288" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Montserrat&lt;: &lt;מונטסראט&lt;,</v>
+      </c>
+    </row>
+    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B289" t="s">
         <v>289</v>
       </c>
@@ -7214,8 +7846,12 @@
       <c r="E289" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F289" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Mozambique&lt;: &lt;מוזמביק&lt;,</v>
+      </c>
+    </row>
+    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
         <v>290</v>
       </c>
@@ -7228,8 +7864,12 @@
       <c r="E290" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F290" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Myanmar&lt;: &lt;מיאנמר&lt;,</v>
+      </c>
+    </row>
+    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
         <v>291</v>
       </c>
@@ -7242,8 +7882,12 @@
       <c r="E291" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F291" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Namibia&lt;: &lt;נמיביה&lt;,</v>
+      </c>
+    </row>
+    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
         <v>292</v>
       </c>
@@ -7256,8 +7900,12 @@
       <c r="E292" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F292" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Nauru&lt;: &lt;נאורו&lt;,</v>
+      </c>
+    </row>
+    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
         <v>293</v>
       </c>
@@ -7270,8 +7918,12 @@
       <c r="E293" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F293" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Nepal&lt;: &lt;נפאל&lt;,</v>
+      </c>
+    </row>
+    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
         <v>294</v>
       </c>
@@ -7284,8 +7936,12 @@
       <c r="E294" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F294" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Níger&lt;: &lt;ניז'ר&lt;,</v>
+      </c>
+    </row>
+    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
         <v>295</v>
       </c>
@@ -7298,8 +7954,12 @@
       <c r="E295" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F295" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Nigeria&lt;: &lt;ניגריה&lt;,</v>
+      </c>
+    </row>
+    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
         <v>296</v>
       </c>
@@ -7312,8 +7972,12 @@
       <c r="E296" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F296" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Niue&lt;: &lt;ניואה&lt;,</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B297" t="s">
         <v>297</v>
       </c>
@@ -7326,8 +7990,12 @@
       <c r="E297" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F297" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Isla Norfolk&lt;: &lt;האי נורפוק&lt;,</v>
+      </c>
+    </row>
+    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
         <v>298</v>
       </c>
@@ -7340,8 +8008,12 @@
       <c r="E298" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F298" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Noruega&lt;: &lt;נורווגיה&lt;,</v>
+      </c>
+    </row>
+    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B299" t="s">
         <v>299</v>
       </c>
@@ -7354,8 +8026,12 @@
       <c r="E299" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F299" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Nueva Caledonia&lt;: &lt;קלדוניה החדשה&lt;,</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B300" t="s">
         <v>300</v>
       </c>
@@ -7368,8 +8044,12 @@
       <c r="E300" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F300" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Nueva Zelanda&lt;: &lt;ניו זילנד&lt;,</v>
+      </c>
+    </row>
+    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B301" t="s">
         <v>301</v>
       </c>
@@ -7382,8 +8062,12 @@
       <c r="E301" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F301" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Omán&lt;: &lt;עומאן&lt;,</v>
+      </c>
+    </row>
+    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
         <v>302</v>
       </c>
@@ -7396,8 +8080,12 @@
       <c r="E302" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F302" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Países Bajos&lt;: &lt;הולנד&lt;,</v>
+      </c>
+    </row>
+    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
         <v>303</v>
       </c>
@@ -7410,8 +8098,12 @@
       <c r="E303" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F303" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Pakistán&lt;: &lt;פקיסטן&lt;,</v>
+      </c>
+    </row>
+    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
         <v>304</v>
       </c>
@@ -7424,8 +8116,12 @@
       <c r="E304" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F304" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Palau&lt;: &lt;פלאו&lt;,</v>
+      </c>
+    </row>
+    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
         <v>305</v>
       </c>
@@ -7438,8 +8134,12 @@
       <c r="E305" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F305" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Palestina&lt;: &lt;פלשתינה&lt;,</v>
+      </c>
+    </row>
+    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
         <v>306</v>
       </c>
@@ -7452,8 +8152,12 @@
       <c r="E306" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F306" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Papúa Nueva Guinea&lt;: &lt;פפואה גינאה החדשה&lt;,</v>
+      </c>
+    </row>
+    <row r="307" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
         <v>307</v>
       </c>
@@ -7466,8 +8170,12 @@
       <c r="E307" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="308" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F307" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Islas Pitcairn&lt;: &lt;איי פיטקרן&lt;,</v>
+      </c>
+    </row>
+    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
         <v>308</v>
       </c>
@@ -7480,8 +8188,12 @@
       <c r="E308" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F308" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Polinesia Francesa&lt;: &lt;פולינזיה הצרפתית&lt;,</v>
+      </c>
+    </row>
+    <row r="309" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
         <v>309</v>
       </c>
@@ -7494,8 +8206,12 @@
       <c r="E309" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F309" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Polonia&lt;: &lt;פּוֹלִין&lt;,</v>
+      </c>
+    </row>
+    <row r="310" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
         <v>310</v>
       </c>
@@ -7508,8 +8224,12 @@
       <c r="E310" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F310" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Qatar&lt;: &lt;קטאר&lt;,</v>
+      </c>
+    </row>
+    <row r="311" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
         <v>311</v>
       </c>
@@ -7522,8 +8242,12 @@
       <c r="E311" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F311" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;United Kingdom&lt;: &lt;הממלכה המאוחדת&lt;,</v>
+      </c>
+    </row>
+    <row r="312" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
         <v>312</v>
       </c>
@@ -7536,8 +8260,12 @@
       <c r="E312" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F312" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Reunión&lt;: &lt;פְּגִישָׁה&lt;,</v>
+      </c>
+    </row>
+    <row r="313" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
         <v>313</v>
       </c>
@@ -7550,8 +8278,12 @@
       <c r="E313" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F313" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Ruanda&lt;: &lt;רואנדה&lt;,</v>
+      </c>
+    </row>
+    <row r="314" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
         <v>314</v>
       </c>
@@ -7564,8 +8296,12 @@
       <c r="E314" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F314" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Rumania&lt;: &lt;רומניה&lt;,</v>
+      </c>
+    </row>
+    <row r="315" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
         <v>315</v>
       </c>
@@ -7578,8 +8314,12 @@
       <c r="E315" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F315" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Rusia&lt;: &lt;רוּסִיָה&lt;,</v>
+      </c>
+    </row>
+    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
         <v>316</v>
       </c>
@@ -7592,8 +8332,12 @@
       <c r="E316" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F316" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Sahara Occidental&lt;: &lt;סהרה מערבית&lt;,</v>
+      </c>
+    </row>
+    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
         <v>317</v>
       </c>
@@ -7606,8 +8350,12 @@
       <c r="E317" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F317" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Islas Salomón&lt;: &lt;איי שלמה&lt;,</v>
+      </c>
+    </row>
+    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
         <v>318</v>
       </c>
@@ -7620,8 +8368,12 @@
       <c r="E318" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F318" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Samoa&lt;: &lt;סמואה&lt;,</v>
+      </c>
+    </row>
+    <row r="319" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B319" t="s">
         <v>319</v>
       </c>
@@ -7634,8 +8386,12 @@
       <c r="E319" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F319" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;Samoa Americana&lt;: &lt;סמואה האמריקנית&lt;,</v>
+      </c>
+    </row>
+    <row r="320" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B320" t="s">
         <v>320</v>
       </c>
@@ -7648,8 +8404,12 @@
       <c r="E320" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F320" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;San Cristóbal y Nevis&lt;: &lt;סנט קיטס ונוויס&lt;,</v>
+      </c>
+    </row>
+    <row r="321" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B321" t="s">
         <v>321</v>
       </c>
@@ -7662,8 +8422,12 @@
       <c r="E321" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F321" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;San Marino&lt;: &lt;סן מרינו&lt;,</v>
+      </c>
+    </row>
+    <row r="322" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B322" t="s">
         <v>322</v>
       </c>
@@ -7676,8 +8440,12 @@
       <c r="E322" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F322" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;San Pedro y Miquelón&lt;: &lt;סנט פייר ומיקלון&lt;,</v>
+      </c>
+    </row>
+    <row r="323" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
         <v>323</v>
       </c>
@@ -7690,8 +8458,12 @@
       <c r="E323" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F323" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;San Vicente y las Granadinas&lt;: &lt;סנט וינסנט והגרנדינים&lt;,</v>
+      </c>
+    </row>
+    <row r="324" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
         <v>324</v>
       </c>
@@ -7704,8 +8476,12 @@
       <c r="E324" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F324" t="str">
+        <f t="shared" ref="F324:F374" si="3">CONCATENATE("&lt;",B324,"&lt;: &lt;",D324,"&lt;,")</f>
+        <v>&lt;Santa Helena&lt;: &lt;סנט הלנה&lt;,</v>
+      </c>
+    </row>
+    <row r="325" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B325" t="s">
         <v>325</v>
       </c>
@@ -7718,8 +8494,12 @@
       <c r="E325" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F325" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Santa Lucía&lt;: &lt;סנט לוסיה&lt;,</v>
+      </c>
+    </row>
+    <row r="326" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B326" t="s">
         <v>326</v>
       </c>
@@ -7732,8 +8512,12 @@
       <c r="E326" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F326" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Santo Tomé y Príncipe&lt;: &lt;סאו טומה ופרינסיפה&lt;,</v>
+      </c>
+    </row>
+    <row r="327" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B327" t="s">
         <v>327</v>
       </c>
@@ -7746,8 +8530,12 @@
       <c r="E327" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F327" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Senegal&lt;: &lt;סנגל&lt;,</v>
+      </c>
+    </row>
+    <row r="328" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B328" t="s">
         <v>328</v>
       </c>
@@ -7760,8 +8548,12 @@
       <c r="E328" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F328" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Serbia y Montenegro&lt;: &lt;סרביה ומונטנגרו&lt;,</v>
+      </c>
+    </row>
+    <row r="329" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>329</v>
       </c>
@@ -7774,8 +8566,12 @@
       <c r="E329" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="330" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F329" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Seychelles&lt;: &lt;סיישל&lt;,</v>
+      </c>
+    </row>
+    <row r="330" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>330</v>
       </c>
@@ -7788,8 +8584,12 @@
       <c r="E330" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F330" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Sierra Leona&lt;: &lt;סיירה לאון&lt;,</v>
+      </c>
+    </row>
+    <row r="331" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>331</v>
       </c>
@@ -7802,8 +8602,12 @@
       <c r="E331" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F331" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Singapur&lt;: &lt;סינגפור&lt;,</v>
+      </c>
+    </row>
+    <row r="332" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>332</v>
       </c>
@@ -7816,8 +8620,12 @@
       <c r="E332" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F332" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Siria&lt;: &lt;סוּריָה&lt;,</v>
+      </c>
+    </row>
+    <row r="333" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>333</v>
       </c>
@@ -7830,8 +8638,12 @@
       <c r="E333" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F333" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Somalia&lt;: &lt;סומליה&lt;,</v>
+      </c>
+    </row>
+    <row r="334" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>334</v>
       </c>
@@ -7844,8 +8656,12 @@
       <c r="E334" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F334" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Sri Lanka&lt;: &lt;סרי לנקה&lt;,</v>
+      </c>
+    </row>
+    <row r="335" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>335</v>
       </c>
@@ -7858,8 +8674,12 @@
       <c r="E335" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F335" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Suazilandia&lt;: &lt;סווזילנד&lt;,</v>
+      </c>
+    </row>
+    <row r="336" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B336" t="s">
         <v>336</v>
       </c>
@@ -7872,8 +8692,12 @@
       <c r="E336" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F336" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Sudáfrica&lt;: &lt;דרום אפריקה&lt;,</v>
+      </c>
+    </row>
+    <row r="337" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>337</v>
       </c>
@@ -7886,8 +8710,12 @@
       <c r="E337" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F337" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Sudán&lt;: &lt;סודן&lt;,</v>
+      </c>
+    </row>
+    <row r="338" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>338</v>
       </c>
@@ -7900,8 +8728,12 @@
       <c r="E338" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F338" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Suecia&lt;: &lt;שבדיה&lt;,</v>
+      </c>
+    </row>
+    <row r="339" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>339</v>
       </c>
@@ -7914,8 +8746,12 @@
       <c r="E339" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F339" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Surinam&lt;: &lt;סורינאם&lt;,</v>
+      </c>
+    </row>
+    <row r="340" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>340</v>
       </c>
@@ -7928,8 +8764,12 @@
       <c r="E340" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F340" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Svalbard y Jan Mayen&lt;: &lt;סבאלברד ויאן מאין&lt;,</v>
+      </c>
+    </row>
+    <row r="341" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>341</v>
       </c>
@@ -7942,8 +8782,12 @@
       <c r="E341" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F341" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Tailandia&lt;: &lt;תאילנד&lt;,</v>
+      </c>
+    </row>
+    <row r="342" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B342" t="s">
         <v>342</v>
       </c>
@@ -7956,8 +8800,12 @@
       <c r="E342" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F342" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Taiwán&lt;: &lt;טייוואן&lt;,</v>
+      </c>
+    </row>
+    <row r="343" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
         <v>343</v>
       </c>
@@ -7970,8 +8818,12 @@
       <c r="E343" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F343" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Tanzania&lt;: &lt;טנזניה&lt;,</v>
+      </c>
+    </row>
+    <row r="344" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
         <v>344</v>
       </c>
@@ -7984,8 +8836,12 @@
       <c r="E344" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F344" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Tayikistán&lt;: &lt;טג'יקיסטן&lt;,</v>
+      </c>
+    </row>
+    <row r="345" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
         <v>345</v>
       </c>
@@ -7998,8 +8854,12 @@
       <c r="E345" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F345" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Territorio Británico del Océano Índico&lt;: &lt;טריטוריית האוקיינוס ​​ההודי הבריטי&lt;,</v>
+      </c>
+    </row>
+    <row r="346" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>346</v>
       </c>
@@ -8012,8 +8872,12 @@
       <c r="E346" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F346" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Territorios Australes Franceses&lt;: &lt;השטחים הדרומיים של צרפת&lt;,</v>
+      </c>
+    </row>
+    <row r="347" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
         <v>347</v>
       </c>
@@ -8026,8 +8890,12 @@
       <c r="E347" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F347" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Timor Oriental&lt;: &lt;מזרח טימור&lt;,</v>
+      </c>
+    </row>
+    <row r="348" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>348</v>
       </c>
@@ -8040,8 +8908,12 @@
       <c r="E348" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F348" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Togo&lt;: &lt;ללכת&lt;,</v>
+      </c>
+    </row>
+    <row r="349" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>349</v>
       </c>
@@ -8054,8 +8926,12 @@
       <c r="E349" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F349" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Tokelau&lt;: &lt;טוקלאו&lt;,</v>
+      </c>
+    </row>
+    <row r="350" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>350</v>
       </c>
@@ -8068,8 +8944,12 @@
       <c r="E350" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F350" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Tonga&lt;: &lt;טונגה&lt;,</v>
+      </c>
+    </row>
+    <row r="351" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>351</v>
       </c>
@@ -8082,8 +8962,12 @@
       <c r="E351" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="352" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F351" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Trinidad y Tobago&lt;: &lt;טרינידד וטובגו&lt;,</v>
+      </c>
+    </row>
+    <row r="352" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>352</v>
       </c>
@@ -8096,8 +8980,12 @@
       <c r="E352" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F352" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Túnez&lt;: &lt;תוניסיה&lt;,</v>
+      </c>
+    </row>
+    <row r="353" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>353</v>
       </c>
@@ -8110,8 +8998,12 @@
       <c r="E353" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F353" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Islas Turcas y Caicos&lt;: &lt;איי טורקס וקאיקוס&lt;,</v>
+      </c>
+    </row>
+    <row r="354" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>354</v>
       </c>
@@ -8124,8 +9016,12 @@
       <c r="E354" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F354" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Turkmenistán&lt;: &lt;טורקמניסטן&lt;,</v>
+      </c>
+    </row>
+    <row r="355" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>355</v>
       </c>
@@ -8138,8 +9034,12 @@
       <c r="E355" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F355" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Turquía&lt;: &lt;טורקיה&lt;,</v>
+      </c>
+    </row>
+    <row r="356" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>356</v>
       </c>
@@ -8152,8 +9052,12 @@
       <c r="E356" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F356" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Tuvalu&lt;: &lt;טובאלואן&lt;,</v>
+      </c>
+    </row>
+    <row r="357" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B357" t="s">
         <v>357</v>
       </c>
@@ -8166,8 +9070,12 @@
       <c r="E357" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F357" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Ucrania&lt;: &lt;אוקראינה&lt;,</v>
+      </c>
+    </row>
+    <row r="358" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>358</v>
       </c>
@@ -8180,8 +9088,12 @@
       <c r="E358" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F358" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Uganda&lt;: &lt;אוגנדה&lt;,</v>
+      </c>
+    </row>
+    <row r="359" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>359</v>
       </c>
@@ -8194,8 +9106,12 @@
       <c r="E359" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F359" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Uzbekistán&lt;: &lt;אוזבקיסטן&lt;,</v>
+      </c>
+    </row>
+    <row r="360" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B360" t="s">
         <v>360</v>
       </c>
@@ -8208,8 +9124,12 @@
       <c r="E360" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F360" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Vanuatu&lt;: &lt;ונואטו&lt;,</v>
+      </c>
+    </row>
+    <row r="361" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>361</v>
       </c>
@@ -8222,8 +9142,12 @@
       <c r="E361" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F361" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Vietnam&lt;: &lt;וייטנאם&lt;,</v>
+      </c>
+    </row>
+    <row r="362" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B362" t="s">
         <v>362</v>
       </c>
@@ -8236,8 +9160,12 @@
       <c r="E362" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F362" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Islas Vírgenes Británicas&lt;: &lt;איי בתולה בריטיים&lt;,</v>
+      </c>
+    </row>
+    <row r="363" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B363" t="s">
         <v>363</v>
       </c>
@@ -8250,8 +9178,12 @@
       <c r="E363" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F363" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Islas Vírgenes de los Estados Unidos&lt;: &lt;איי הבתולה של ארצות הברית&lt;,</v>
+      </c>
+    </row>
+    <row r="364" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>364</v>
       </c>
@@ -8264,8 +9196,12 @@
       <c r="E364" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F364" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Wallis y Futuna&lt;: &lt;וואליס ופוטונה&lt;,</v>
+      </c>
+    </row>
+    <row r="365" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B365" t="s">
         <v>365</v>
       </c>
@@ -8278,8 +9214,12 @@
       <c r="E365" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F365" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Yemen&lt;: &lt;תֵימָן&lt;,</v>
+      </c>
+    </row>
+    <row r="366" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>366</v>
       </c>
@@ -8292,8 +9232,12 @@
       <c r="E366" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F366" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Yibuti&lt;: &lt;ג'יבוטי&lt;,</v>
+      </c>
+    </row>
+    <row r="367" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B367" t="s">
         <v>367</v>
       </c>
@@ -8306,8 +9250,12 @@
       <c r="E367" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F367" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Zambia&lt;: &lt;זמביה&lt;,</v>
+      </c>
+    </row>
+    <row r="368" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B368" t="s">
         <v>368</v>
       </c>
@@ -8320,8 +9268,12 @@
       <c r="E368" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F368" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Zimbabue&lt;: &lt;זימבבואה&lt;,</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B369" t="s">
         <v>369</v>
       </c>
@@ -8334,8 +9286,12 @@
       <c r="E369" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F369" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Inglaterra&lt;: &lt;אַנְגלִיָה&lt;,</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B370" t="s">
         <v>370</v>
       </c>
@@ -8348,8 +9304,12 @@
       <c r="E370" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F370" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Curaçao&lt;: &lt;קוראסאו&lt;,</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B371" t="s">
         <v>371</v>
       </c>
@@ -8362,8 +9322,12 @@
       <c r="E371" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F371" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Escocia&lt;: &lt;סקוטלנד&lt;,</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B372" t="s">
         <v>372</v>
       </c>
@@ -8376,8 +9340,12 @@
       <c r="E372" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F372" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Afganistán&lt;: &lt;אפגניסטן&lt;,</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B373" t="s">
         <v>373</v>
       </c>
@@ -8390,8 +9358,12 @@
       <c r="E373" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F373" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Niger África Occidental&lt;: &lt;ניז'ר ​​מערב אפריקה&lt;,</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B374" t="s">
         <v>374</v>
       </c>
@@ -8401,18 +9373,22 @@
       <c r="D374" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F374" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;Bután&lt;: &lt;בהוטן&lt;,</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B378" t="s">
         <v>377</v>
       </c>
@@ -8423,7 +9399,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B379" t="s">
         <v>378</v>
       </c>
@@ -8434,7 +9410,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B380" t="s">
         <v>379</v>
       </c>
@@ -8445,7 +9421,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
         <v>380</v>
       </c>
@@ -8456,7 +9432,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
         <v>381</v>
       </c>
@@ -8467,7 +9443,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B383" t="s">
         <v>382</v>
       </c>
@@ -8478,7 +9454,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B384" t="s">
         <v>383</v>
       </c>
